--- a/xlsx/财政政策_intext.xlsx
+++ b/xlsx/财政政策_intext.xlsx
@@ -29,7 +29,7 @@
     <t>公共财政</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_财政政策</t>
+    <t>政策_政策_货币政策_财政政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%9F%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>貨幣基數</t>
+    <t>货币基数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91%E6%AF%94%E7%8E%87</t>
   </si>
   <si>
-    <t>存款準備金比率</t>
+    <t>存款准备金比率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91</t>
   </si>
   <si>
-    <t>存款準備金</t>
+    <t>存款准备金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E5%82%A8%E5%A4%87</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%88%A9%E5%BE%97</t>
   </si>
   <si>
-    <t>貿易利得</t>
+    <t>贸易利得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>商務部</t>
+    <t>商务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E5%A3%81%E5%9E%92</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E6%B6%88%E8%B2%BB%E5%82%BE%E5%90%91</t>
   </si>
   <si>
-    <t>邊際消費傾向</t>
+    <t>边际消费倾向</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
   </si>
   <si>
-    <t>投資</t>
+    <t>投资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%A0%E5%87%BA%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>擠出效應</t>
+    <t>挤出效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>企業</t>
+    <t>企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%88%A9%E6%B0%91</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>就業</t>
+    <t>就业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7</t>
@@ -287,19 +287,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E9%9B%BB%E4%B8%8B%E9%84%89</t>
   </si>
   <si>
-    <t>家電下鄉</t>
+    <t>家电下乡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E4%B8%8B%E9%84%89</t>
   </si>
   <si>
-    <t>汽車下鄉</t>
+    <t>汽车下乡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E5%88%B8</t>
   </si>
   <si>
-    <t>消費券</t>
+    <t>消费券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%BC%97%E6%9B%B2%E7%BA%BF</t>
@@ -341,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E5%AD%A6%E6%B4%BE%E4%B8%8E%E5%92%B8%E6%B0%B4%E5%AD%A6%E6%B4%BE</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IS-LM%E6%A8%A1%E5%9E%8B</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瓊·羅賓遜</t>
+    <t>琼·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E8%90%A8%E9%87%91%E7%89%B9</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
